--- a/DATA_goal/Junction_Flooding_193.xlsx
+++ b/DATA_goal/Junction_Flooding_193.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41625.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>7.99</v>
+        <v>0.8</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.86</v>
+        <v>0.59</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.65</v>
+        <v>0.27</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>17.82</v>
+        <v>1.78</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>12.99</v>
+        <v>1.3</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.05</v>
+        <v>0.51</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>17.29</v>
+        <v>1.73</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>1</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.71</v>
+        <v>0.47</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.39</v>
+        <v>0.54</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.26</v>
+        <v>0.73</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.02</v>
+        <v>0.8</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.91</v>
+        <v>0.29</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.62</v>
+        <v>0.66</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>8.470000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>6.13</v>
+        <v>0.61</v>
       </c>
       <c r="R2" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z2" s="4" t="n">
         <v>1.08</v>
       </c>
-      <c r="S2" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>18.12</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>6.69</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>10.77</v>
-      </c>
       <c r="AA2" s="4" t="n">
-        <v>5.39</v>
+        <v>0.54</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.19</v>
+        <v>0.52</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.78</v>
+        <v>0.58</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.16</v>
+        <v>0.82</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.01</v>
+        <v>0.2</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>15.26</v>
+        <v>1.53</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.01</v>
+        <v>0.3</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>7.63</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41625.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>10.68</v>
+        <v>1.07</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.95</v>
+        <v>0.8</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.41</v>
+        <v>0.14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>23.71</v>
+        <v>2.37</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>18.65</v>
+        <v>1.87</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.76</v>
+        <v>0.78</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>30.78</v>
+        <v>3.08</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>13.07</v>
+        <v>1.31</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.21</v>
+        <v>0.62</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.96</v>
+        <v>0.8</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>10.29</v>
+        <v>1.03</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.12</v>
+        <v>0.31</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>8.57</v>
+        <v>0.86</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>11.75</v>
+        <v>1.17</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>7.58</v>
+        <v>0.76</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>123.14</v>
+        <v>12.31</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>23.94</v>
+        <v>2.39</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.91</v>
+        <v>0.79</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>15.58</v>
+        <v>1.56</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>8.56</v>
+        <v>0.86</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.16</v>
+        <v>0.12</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>16.5</v>
+        <v>1.65</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.99</v>
+        <v>0.7</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.39</v>
+        <v>0.64</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>7.42</v>
+        <v>0.74</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>10.22</v>
+        <v>1.02</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>28.27</v>
+        <v>2.83</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.24</v>
+        <v>0.42</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41625.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>16.91</v>
+        <v>1.69</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>12.65</v>
+        <v>1.27</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.25</v>
+        <v>0.13</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>37.15</v>
+        <v>3.72</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>30.08</v>
+        <v>3.01</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>12.87</v>
+        <v>1.29</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>50.33</v>
+        <v>5.03</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>20.56</v>
+        <v>2.06</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>13.2</v>
+        <v>1.32</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>14.92</v>
+        <v>1.49</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>15.93</v>
+        <v>1.59</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.53</v>
+        <v>0.45</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>13.38</v>
+        <v>1.34</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>18.78</v>
+        <v>1.88</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>11.44</v>
+        <v>1.14</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>196.4</v>
+        <v>19.64</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>37.39</v>
+        <v>3.74</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>12.35</v>
+        <v>1.24</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>24.91</v>
+        <v>2.49</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>13.33</v>
+        <v>1.33</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.77</v>
+        <v>0.18</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>25.55</v>
+        <v>2.56</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>10.91</v>
+        <v>1.09</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.76</v>
+        <v>0.98</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>11.43</v>
+        <v>1.14</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>15.79</v>
+        <v>1.58</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>45.9</v>
+        <v>4.59</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.85</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>15.45</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41625.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>22.72</v>
+        <v>2.27</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>17.03</v>
+        <v>1.7</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="J5" s="4" t="n">
         <v>1.27</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>49.72</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>40.62</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>17.54</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>68.98</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>27.57</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>12.65</v>
-      </c>
       <c r="K5" s="4" t="n">
-        <v>18.03</v>
+        <v>1.8</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>19.96</v>
+        <v>2</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>21.24</v>
+        <v>2.12</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.92</v>
+        <v>0.59</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>17.9</v>
+        <v>1.79</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>25.33</v>
+        <v>2.53</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>15.11</v>
+        <v>1.51</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>265.08</v>
+        <v>26.51</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>50.04</v>
+        <v>5</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>16.52</v>
+        <v>1.65</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>33.58</v>
+        <v>3.36</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>17.81</v>
+        <v>1.78</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.36</v>
+        <v>0.24</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>34.32</v>
+        <v>3.43</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>14.59</v>
+        <v>1.46</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>12.94</v>
+        <v>1.29</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>15.2</v>
+        <v>1.52</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>21.05</v>
+        <v>2.1</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>62.8</v>
+        <v>6.28</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.27</v>
+        <v>0.93</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>20.65</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41625.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>5.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>4.21</v>
+        <v>0.42</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>12.52</v>
+        <v>1.25</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>1</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>4.17</v>
+        <v>0.42</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>23.57</v>
+        <v>2.36</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>6.88</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>3.37</v>
+        <v>0.34</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>4.23</v>
+        <v>0.42</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>5.03</v>
+        <v>0.5</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>5.42</v>
+        <v>0.54</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>1.6</v>
+        <v>0.16</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>4.51</v>
+        <v>0.45</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>6.31</v>
+        <v>0.63</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>3.97</v>
+        <v>0.4</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>61.4</v>
+        <v>6.14</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>12.91</v>
+        <v>1.29</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>4.16</v>
+        <v>0.42</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>8.529999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>4.54</v>
+        <v>0.45</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>11.29</v>
+        <v>1.13</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>3.68</v>
+        <v>0.37</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>3.35</v>
+        <v>0.33</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>3.91</v>
+        <v>0.39</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>5.33</v>
+        <v>0.53</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>21.94</v>
+        <v>2.19</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>2.25</v>
+        <v>0.23</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>5.21</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41625.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>11.04</v>
+        <v>1.1</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>8.27</v>
+        <v>0.83</v>
       </c>
       <c r="D7" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AA7" s="4" t="n">
         <v>0.71</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <v>24.23</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>19.71</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>33.03</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>13.41</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>8.67</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>10.38</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>8.720000000000001</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>12.27</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>125.42</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>24.32</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>16.25</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>8.67</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>7.11</v>
-      </c>
       <c r="AB7" s="4" t="n">
-        <v>6.34</v>
+        <v>0.63</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>7.44</v>
+        <v>0.74</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>10.26</v>
+        <v>1.03</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>29.85</v>
+        <v>2.99</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>4.49</v>
+        <v>0.45</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>10.07</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41625.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>18.94</v>
+        <v>1.89</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>14.2</v>
+        <v>1.42</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>41.38</v>
+        <v>4.14</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>33.93</v>
+        <v>3.39</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>14.7</v>
+        <v>1.47</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>56.24</v>
+        <v>5.62</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>22.96</v>
+        <v>2.3</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>10.5</v>
+        <v>1.05</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>15.12</v>
+        <v>1.51</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>16.61</v>
+        <v>1.66</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>17.65</v>
+        <v>1.76</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>4.88</v>
+        <v>0.49</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>14.89</v>
+        <v>1.49</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>21.13</v>
+        <v>2.11</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>12.5</v>
+        <v>1.25</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>219.29</v>
+        <v>21.93</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>41.6</v>
+        <v>4.16</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>13.74</v>
+        <v>1.37</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>28</v>
+        <v>2.8</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>14.8</v>
+        <v>1.48</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.96</v>
+        <v>0.2</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>28.02</v>
+        <v>2.8</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>12.14</v>
+        <v>1.21</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>10.73</v>
+        <v>1.07</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>12.62</v>
+        <v>1.26</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>17.48</v>
+        <v>1.75</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>51.09</v>
+        <v>5.11</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>7.75</v>
+        <v>0.77</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>17.18</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41625.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>2.23</v>
+        <v>0.22</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>1.65</v>
+        <v>0.17</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>5.01</v>
+        <v>0.5</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>3.9</v>
+        <v>0.39</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>1.58</v>
+        <v>0.16</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>14.17</v>
+        <v>1.42</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>2.72</v>
+        <v>0.27</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>1.51</v>
+        <v>0.15</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>1.57</v>
+        <v>0.16</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>2.01</v>
+        <v>0.2</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>2.2</v>
+        <v>0.22</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>1.8</v>
+        <v>0.18</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>2.61</v>
+        <v>0.26</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>1.65</v>
+        <v>0.16</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="S9" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="W9" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="X9" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="Y9" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AA9" s="4" t="n">
         <v>0.15</v>
       </c>
-      <c r="T9" s="4" t="n">
-        <v>20.26</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.47</v>
-      </c>
       <c r="AB9" s="4" t="n">
-        <v>1.38</v>
+        <v>0.14</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>1.59</v>
+        <v>0.16</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>2.13</v>
+        <v>0.21</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>13.55</v>
+        <v>1.36</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>2.09</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41625.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>14.05</v>
+        <v>1.41</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>10.54</v>
+        <v>1.05</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>30.72</v>
+        <v>3.07</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>25.18</v>
+        <v>2.52</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>10.9</v>
+        <v>1.09</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>39.72</v>
+        <v>3.97</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>17.04</v>
+        <v>1.7</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>7.79</v>
+        <v>0.78</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>11.21</v>
+        <v>1.12</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>12.33</v>
+        <v>1.23</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>13.11</v>
+        <v>1.31</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>3.62</v>
+        <v>0.36</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>11.05</v>
+        <v>1.11</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>15.65</v>
+        <v>1.56</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>160.89</v>
+        <v>16.09</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>30.76</v>
+        <v>3.08</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>10.2</v>
+        <v>1.02</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>20.69</v>
+        <v>2.07</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>10.98</v>
+        <v>1.1</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.45</v>
+        <v>0.15</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>19.85</v>
+        <v>1.98</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>9.01</v>
+        <v>0.9</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>7.97</v>
+        <v>0.8</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>12.98</v>
+        <v>1.3</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>35.74</v>
+        <v>3.57</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>5.75</v>
+        <v>0.57</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>12.76</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_193.xlsx
+++ b/DATA_goal/Junction_Flooding_193.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41625.34027777778</v>
+        <v>44874.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="C2" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G2" s="4" t="n">
         <v>0.59</v>
       </c>
-      <c r="D2" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>0.51</v>
-      </c>
       <c r="H2" s="4" t="n">
-        <v>1.73</v>
+        <v>1.93</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.73</v>
+        <v>0.78</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
       <c r="N2" s="4" t="n">
         <v>0.29</v>
       </c>
       <c r="O2" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>10.13</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V2" s="4" t="n">
         <v>0.66</v>
       </c>
-      <c r="P2" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="Q2" s="4" t="n">
+      <c r="W2" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AC2" s="4" t="n">
         <v>0.61</v>
       </c>
-      <c r="R2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>0.58</v>
-      </c>
       <c r="AD2" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AG2" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AH2" s="4" t="n">
         <v>0.82</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AG2" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AH2" s="4" t="n">
-        <v>0.76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41625.34722222222</v>
+        <v>44874.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.07</v>
+        <v>1.56</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.8</v>
+        <v>1.16</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.37</v>
+        <v>3.45</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.87</v>
+        <v>2.75</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.78</v>
+        <v>1.17</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.08</v>
+        <v>4.48</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.31</v>
+        <v>1.91</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.62</v>
+        <v>0.85</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.8</v>
+        <v>1.19</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.95</v>
+        <v>1.38</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.03</v>
+        <v>1.48</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.31</v>
+        <v>0.43</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.86</v>
+        <v>1.24</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.17</v>
+        <v>1.73</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.76</v>
+        <v>1.08</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>12.31</v>
+        <v>18.15</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.39</v>
+        <v>3.46</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.79</v>
+        <v>1.15</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.56</v>
+        <v>2.29</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.86</v>
+        <v>1.22</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.65</v>
+        <v>2.34</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.7</v>
+        <v>1.01</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.64</v>
+        <v>0.91</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.74</v>
+        <v>1.06</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.02</v>
+        <v>1.46</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.83</v>
+        <v>4.1</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.42</v>
+        <v>0.63</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.99</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41625.35416666666</v>
+        <v>44874.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="K4" s="4" t="n">
         <v>1.69</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>1.32</v>
-      </c>
       <c r="L4" s="4" t="n">
-        <v>1.49</v>
+        <v>1.88</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.59</v>
+        <v>2.01</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.45</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.34</v>
+        <v>1.69</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.88</v>
+        <v>2.39</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.14</v>
+        <v>1.44</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>19.64</v>
+        <v>25.02</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.74</v>
+        <v>4.73</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.24</v>
+        <v>1.56</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.49</v>
+        <v>3.16</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.56</v>
+        <v>3.25</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.09</v>
+        <v>1.38</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.98</v>
+        <v>1.23</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.14</v>
+        <v>1.44</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.58</v>
+        <v>1.99</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.59</v>
+        <v>5.91</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.54</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41625.36111111111</v>
+        <v>44874.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.27</v>
+        <v>1.62</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.7</v>
+        <v>1.21</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.97</v>
+        <v>3.55</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.06</v>
+        <v>2.89</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.75</v>
+        <v>1.24</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.9</v>
+        <v>5.15</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.76</v>
+        <v>1.97</v>
       </c>
       <c r="J5" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="K5" s="4" t="n">
         <v>1.27</v>
       </c>
-      <c r="K5" s="4" t="n">
-        <v>1.8</v>
-      </c>
       <c r="L5" s="4" t="n">
-        <v>2</v>
+        <v>1.42</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.12</v>
+        <v>1.52</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.59</v>
+        <v>0.43</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.79</v>
+        <v>1.28</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.53</v>
+        <v>1.81</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.51</v>
+        <v>1.09</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>26.51</v>
+        <v>18.73</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5</v>
+        <v>3.58</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.65</v>
+        <v>1.18</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.36</v>
+        <v>2.39</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.78</v>
+        <v>1.26</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.43</v>
+        <v>2.54</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.46</v>
+        <v>1.04</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.29</v>
+        <v>0.93</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.52</v>
+        <v>1.09</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>6.28</v>
+        <v>4.7</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.93</v>
+        <v>0.66</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.07</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41625.36805555555</v>
+        <v>44874.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>21.03</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.42</v>
+        <v>15.75</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.06</v>
+        <v>1.12</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>1.25</v>
+        <v>45.99</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>1</v>
+        <v>37.61</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.42</v>
+        <v>16.28</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>2.36</v>
+        <v>64.19</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>25.54</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.34</v>
+        <v>11.56</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.42</v>
+        <v>16.74</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.5</v>
+        <v>18.44</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.54</v>
+        <v>19.62</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.16</v>
+        <v>5.44</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.45</v>
+        <v>16.54</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>0.63</v>
+        <v>23.48</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.4</v>
+        <v>13.95</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.02</v>
+        <v>0.44</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.03</v>
+        <v>0.75</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>6.14</v>
+        <v>244.48</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>1.29</v>
+        <v>46.26</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.42</v>
+        <v>15.27</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>0.85</v>
+        <v>31.09</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.45</v>
+        <v>16.35</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.06</v>
+        <v>2.16</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>1.13</v>
+        <v>31.72</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.37</v>
+        <v>13.49</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.33</v>
+        <v>11.94</v>
       </c>
       <c r="AC6" s="4" t="n">
+        <v>14.03</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>19.42</v>
+      </c>
+      <c r="AE6" s="4" t="n">
         <v>0.39</v>
       </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="AF6" s="4" t="n">
-        <v>2.19</v>
+        <v>58.33</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.23</v>
+        <v>8.59</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41625.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>12.54</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41625.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>21.93</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.72</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41625.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41625.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>16.09</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41625.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>8.57</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>6.89</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>16.34</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>39.65</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>7.88</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>3.56</v>
+        <v>19.09</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_193.xlsx
+++ b/DATA_goal/Junction_Flooding_193.xlsx
@@ -655,103 +655,103 @@
         <v>44874.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.88</v>
+        <v>8.82</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.24</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.79</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.96</v>
+        <v>19.6</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.42</v>
+        <v>14.2</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.89</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.93</v>
+        <v>19.28</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.1</v>
+        <v>10.96</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.46</v>
+        <v>4.56</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.7</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.76</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.88</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.71</v>
+        <v>7.14</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.41</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.68</v>
+        <v>6.78</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.56</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.75</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>10.13</v>
+        <v>101.32</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.96</v>
+        <v>19.6</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.59</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.22</v>
+        <v>12.19</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.91</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.15</v>
+        <v>11.55</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.82</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.51</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.61</v>
+        <v>6.11</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.57</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.09</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.69</v>
+        <v>16.88</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.33</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.24</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44874.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.56</v>
+        <v>15.64</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.16</v>
+        <v>11.59</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.61</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.45</v>
+        <v>34.48</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.75</v>
+        <v>27.46</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.17</v>
+        <v>11.71</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.48</v>
+        <v>44.82</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.91</v>
+        <v>19.11</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.85</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.19</v>
+        <v>11.91</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.38</v>
+        <v>13.78</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.48</v>
+        <v>14.83</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.3</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.24</v>
+        <v>12.41</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.73</v>
+        <v>17.34</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.83</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>18.15</v>
+        <v>181.51</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.46</v>
+        <v>34.64</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.15</v>
+        <v>11.45</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.29</v>
+        <v>22.89</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.22</v>
+        <v>12.18</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.58</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.34</v>
+        <v>23.43</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.01</v>
+        <v>10.12</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.91</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.06</v>
+        <v>10.61</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.46</v>
+        <v>14.63</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.1</v>
+        <v>40.97</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.63</v>
+        <v>6.27</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.43</v>
+        <v>14.32</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44874.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.15</v>
+        <v>21.46</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.6</v>
+        <v>16.02</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.42</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.7</v>
+        <v>47.03</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.82</v>
+        <v>38.2</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.65</v>
+        <v>16.47</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.48</v>
+        <v>64.81999999999999</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.61</v>
+        <v>26.1</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.18</v>
+        <v>11.77</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.69</v>
+        <v>16.88</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.88</v>
+        <v>18.84</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.01</v>
+        <v>20.11</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.65</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.69</v>
+        <v>16.92</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.39</v>
+        <v>23.92</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.44</v>
+        <v>14.41</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.62</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.84</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>25.02</v>
+        <v>250.2</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.73</v>
+        <v>47.3</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.56</v>
+        <v>15.62</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.16</v>
+        <v>31.65</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.67</v>
+        <v>16.69</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.19</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.25</v>
+        <v>32.49</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.38</v>
+        <v>13.79</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.23</v>
+        <v>12.27</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.44</v>
+        <v>14.38</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.99</v>
+        <v>19.89</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.91</v>
+        <v>59.07</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.87</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.95</v>
+        <v>19.52</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44874.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.62</v>
+        <v>16.21</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.21</v>
+        <v>12.11</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.55</v>
+        <v>35.54</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.89</v>
+        <v>28.87</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.24</v>
+        <v>12.43</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.15</v>
+        <v>51.55</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.97</v>
+        <v>19.71</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.89</v>
+        <v>8.93</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.27</v>
+        <v>12.74</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.42</v>
+        <v>14.24</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.52</v>
+        <v>15.2</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.27</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.78</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.81</v>
+        <v>18.08</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.89</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>18.73</v>
+        <v>187.25</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.58</v>
+        <v>35.8</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.18</v>
+        <v>11.8</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.39</v>
+        <v>23.95</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.26</v>
+        <v>12.61</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.66</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.54</v>
+        <v>25.36</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.04</v>
+        <v>10.42</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.88</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.5</v>
+        <v>15.02</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.7</v>
+        <v>46.99</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.66</v>
+        <v>6.58</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.48</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_193.xlsx
+++ b/DATA_goal/Junction_Flooding_193.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44874.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>8.82</v>
+        <v>8.821999999999999</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.24</v>
+        <v>6.243</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.79</v>
+        <v>2.794</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>19.6</v>
+        <v>19.605</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>14.2</v>
+        <v>14.205</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.89</v>
+        <v>5.893</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>19.28</v>
+        <v>19.279</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>10.96</v>
+        <v>10.957</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.56</v>
+        <v>4.563</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.7</v>
+        <v>5.697</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.76</v>
+        <v>7.759</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.68</v>
+        <v>8.683999999999999</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.88</v>
+        <v>2.881</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.14</v>
+        <v>7.143</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>9.41</v>
+        <v>9.409000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>6.78</v>
+        <v>6.779</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.56</v>
+        <v>1.556</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.75</v>
+        <v>0.752</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>101.32</v>
+        <v>101.319</v>
       </c>
       <c r="U2" s="4" t="n">
         <v>19.6</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.59</v>
+        <v>6.594</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>12.19</v>
+        <v>12.192</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.91</v>
+        <v>6.907</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.8</v>
+        <v>0.798</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>11.55</v>
+        <v>11.548</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>5.82</v>
+        <v>5.824</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.51</v>
+        <v>5.505</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.11</v>
+        <v>6.107</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.57</v>
+        <v>8.566000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.09</v>
+        <v>2.095</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>16.88</v>
+        <v>16.882</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.33</v>
+        <v>3.332</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>8.24</v>
+        <v>8.242000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44874.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>15.64</v>
+        <v>15.645</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>11.59</v>
+        <v>11.587</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.61</v>
+        <v>1.612</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>34.48</v>
+        <v>34.475</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>27.46</v>
+        <v>27.464</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>11.71</v>
+        <v>11.713</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>44.82</v>
+        <v>44.821</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>19.11</v>
+        <v>19.113</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>8.550000000000001</v>
+        <v>8.545999999999999</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>11.91</v>
+        <v>11.912</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>13.78</v>
+        <v>13.777</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>14.83</v>
+        <v>14.827</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.3</v>
+        <v>4.299</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>12.41</v>
+        <v>12.407</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>17.34</v>
+        <v>17.342</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>10.83</v>
+        <v>10.834</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0.75</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>181.51</v>
+        <v>181.512</v>
       </c>
       <c r="U3" s="4" t="n">
         <v>34.64</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>11.45</v>
+        <v>11.452</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>22.89</v>
+        <v>22.888</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>12.18</v>
+        <v>12.182</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.58</v>
+        <v>1.579</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>23.43</v>
+        <v>23.432</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>10.12</v>
+        <v>10.115</v>
       </c>
       <c r="AB3" s="4" t="n">
         <v>9.109999999999999</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>10.61</v>
+        <v>10.611</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>14.63</v>
+        <v>14.631</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.97</v>
+        <v>0.973</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>40.97</v>
+        <v>40.968</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.27</v>
+        <v>6.271</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>14.32</v>
+        <v>14.317</v>
       </c>
     </row>
     <row r="4">
@@ -866,100 +866,100 @@
         <v>21.46</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>16.02</v>
+        <v>16.023</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>1.42</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>47.03</v>
+        <v>47.031</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>38.2</v>
+        <v>38.195</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>16.47</v>
+        <v>16.467</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>64.81999999999999</v>
+        <v>64.821</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>26.1</v>
+        <v>26.103</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>11.77</v>
+        <v>11.769</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>16.88</v>
+        <v>16.881</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>18.84</v>
+        <v>18.843</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>20.11</v>
+        <v>20.111</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.65</v>
+        <v>5.647</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>16.92</v>
+        <v>16.918</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>23.92</v>
+        <v>23.922</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>14.41</v>
+        <v>14.409</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.62</v>
+        <v>0.622</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.84</v>
+        <v>0.836</v>
       </c>
       <c r="T4" s="4" t="n">
         <v>250.2</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>47.3</v>
+        <v>47.301</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>15.62</v>
+        <v>15.616</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>31.65</v>
+        <v>31.648</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>16.69</v>
+        <v>16.694</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.19</v>
+        <v>2.194</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>32.49</v>
+        <v>32.486</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>13.79</v>
+        <v>13.794</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>12.27</v>
+        <v>12.271</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>14.38</v>
+        <v>14.384</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>19.89</v>
+        <v>19.887</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.64</v>
+        <v>0.644</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>59.07</v>
+        <v>59.074</v>
       </c>
       <c r="AG4" s="4" t="n">
         <v>8.720000000000001</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>19.52</v>
+        <v>19.524</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>14.75</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44874.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>21.03</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>15.75</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>45.99</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>37.61</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>16.28</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>64.19</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>25.54</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>16.74</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>18.44</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>19.62</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.44</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>23.48</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>13.95</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>244.48</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>46.26</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>15.27</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>31.09</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>31.72</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>14.03</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>19.42</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>58.33</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>8.59</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>19.09</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_193.xlsx
+++ b/DATA_goal/Junction_Flooding_193.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,85 +967,85 @@
         <v>44874.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>16.21</v>
+        <v>16.206</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>12.11</v>
+        <v>12.107</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.06</v>
+        <v>1.062</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>35.54</v>
+        <v>35.537</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>28.87</v>
+        <v>28.867</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>12.43</v>
+        <v>12.428</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>51.55</v>
+        <v>51.545</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>19.71</v>
+        <v>19.712</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.93</v>
+        <v>8.932</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>12.74</v>
+        <v>12.739</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>14.24</v>
+        <v>14.242</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>15.2</v>
+        <v>15.205</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.27</v>
+        <v>4.268</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.78</v>
+        <v>12.783</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>18.08</v>
+        <v>18.077</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.89</v>
+        <v>10.893</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.47</v>
+        <v>0.466</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.63</v>
+        <v>0.635</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>187.25</v>
+        <v>187.254</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>35.8</v>
+        <v>35.797</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.8</v>
+        <v>11.799</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>23.95</v>
+        <v>23.946</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.61</v>
+        <v>12.606</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.66</v>
+        <v>1.662</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>25.36</v>
+        <v>25.357</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.42</v>
+        <v>10.422</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.279999999999999</v>
+        <v>9.276999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>10.88</v>
@@ -1054,16 +1054,120 @@
         <v>15.02</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.48</v>
+        <v>0.483</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>46.99</v>
+        <v>46.987</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.58</v>
+        <v>6.584</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>14.75</v>
+        <v>14.752</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44874.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>21.03</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>45.99</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>37.61</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>64.19</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>25.54</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>16.74</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>19.62</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>23.48</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>244.48</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>46.26</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>15.27</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>31.09</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>31.72</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>14.03</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>19.42</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>58.33</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>19.09</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_193.xlsx
+++ b/DATA_goal/Junction_Flooding_193.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,85 +967,85 @@
         <v>44874.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>16.206</v>
+        <v>16.21</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>12.107</v>
+        <v>12.11</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.062</v>
+        <v>1.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>35.537</v>
+        <v>35.54</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>28.867</v>
+        <v>28.87</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>12.428</v>
+        <v>12.43</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>51.545</v>
+        <v>51.55</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>19.712</v>
+        <v>19.71</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.932</v>
+        <v>8.93</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>12.739</v>
+        <v>12.74</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>14.242</v>
+        <v>14.24</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>15.205</v>
+        <v>15.2</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.268</v>
+        <v>4.27</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.783</v>
+        <v>12.78</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>18.077</v>
+        <v>18.08</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.893</v>
+        <v>10.89</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.466</v>
+        <v>0.47</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.635</v>
+        <v>0.63</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>187.254</v>
+        <v>187.25</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>35.797</v>
+        <v>35.8</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.799</v>
+        <v>11.8</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>23.946</v>
+        <v>23.95</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.606</v>
+        <v>12.61</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.662</v>
+        <v>1.66</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>25.357</v>
+        <v>25.36</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.422</v>
+        <v>10.42</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.276999999999999</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>10.88</v>
@@ -1054,120 +1054,16 @@
         <v>15.02</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.483</v>
+        <v>0.48</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>46.987</v>
+        <v>46.99</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.584</v>
+        <v>6.58</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>14.752</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44874.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>21.03</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>15.75</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>45.99</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>37.61</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>16.28</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>64.19</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>25.54</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>16.74</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>18.44</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>19.62</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.44</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>23.48</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>13.95</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>244.48</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>46.26</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>15.27</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>31.09</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>31.72</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>14.03</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>19.42</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>58.33</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>8.59</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>19.09</v>
+        <v>14.75</v>
       </c>
     </row>
   </sheetData>
